--- a/PostgresCatalog/study_df.xlsx
+++ b/PostgresCatalog/study_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,20 +496,10 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>searchable_text_uncleaned</t>
+          <t>uuid</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>stl_embedding</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>uuid</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ref_uuid</t>
         </is>
@@ -552,20 +542,10 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDIBLE BIRD NEST - PREPARED/PROCESSED </t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
           <t>577b7a1a-eacf-40ab-8241-482f996fdad4</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -604,20 +584,10 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDIBLE DONKEY-HIDE GELATIN - PREPARED/PROCESSED </t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
           <t>03f5b951-9c1e-46a7-84f1-c0ed235245b5</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,20 +626,10 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDIBLE BIRD NEST - UNPREPARED/UNPROCESSED </t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
           <t>35b4eac5-bcef-4d30-80e5-8884aa07793c</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
